--- a/data/trans_orig/P36BPD12_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>168475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>143815</v>
+        <v>147750</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>190158</v>
+        <v>191911</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.306315269861143</v>
+        <v>0.3063152698611432</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2614786504328981</v>
+        <v>0.2686326456224344</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3457387117088657</v>
+        <v>0.3489251247744617</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>240</v>
@@ -762,19 +762,19 @@
         <v>173262</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>154550</v>
+        <v>154478</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>190738</v>
+        <v>191133</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3547473299717189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3164348655321177</v>
+        <v>0.3162873764087892</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3905275863499607</v>
+        <v>0.3913360280203543</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>410</v>
@@ -783,19 +783,19 @@
         <v>341738</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>313911</v>
+        <v>310446</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>372644</v>
+        <v>369800</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3290948925720753</v>
+        <v>0.3290948925720754</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3022978742763441</v>
+        <v>0.2989604815650082</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3588579592674877</v>
+        <v>0.3561186820622738</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>253004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>229520</v>
+        <v>227800</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278341</v>
+        <v>277525</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4600025803042647</v>
+        <v>0.4600025803042648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4173046698564899</v>
+        <v>0.4141769841628564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5060685446597922</v>
+        <v>0.5045845163496419</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>284</v>
@@ -833,19 +833,19 @@
         <v>197484</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>179635</v>
+        <v>180825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>217980</v>
+        <v>216945</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4043395524597517</v>
+        <v>0.4043395524597516</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3677949459919698</v>
+        <v>0.370231551614687</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4463052198789248</v>
+        <v>0.4441855226886701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>543</v>
@@ -854,19 +854,19 @@
         <v>450488</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>418496</v>
+        <v>417858</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>484053</v>
+        <v>481761</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4338219311567542</v>
+        <v>0.4338219311567543</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4030132251223985</v>
+        <v>0.4023993029031926</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4661452880172817</v>
+        <v>0.4639380240851405</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>128527</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>109274</v>
+        <v>107390</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>149955</v>
+        <v>150108</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2336821498345921</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1986776988188531</v>
+        <v>0.1952525207854072</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2726423470991181</v>
+        <v>0.272920924615404</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>162</v>
@@ -904,19 +904,19 @@
         <v>117665</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>101563</v>
+        <v>101512</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>135007</v>
+        <v>136006</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2409131175685295</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2079461828673193</v>
+        <v>0.2078416271910196</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2764216459403104</v>
+        <v>0.2784665788057631</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>286</v>
@@ -925,19 +925,19 @@
         <v>246191</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>219457</v>
+        <v>220812</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>276314</v>
+        <v>276538</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2370831762711704</v>
+        <v>0.2370831762711705</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2113380225064309</v>
+        <v>0.2126433736969595</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2660911602332919</v>
+        <v>0.2663069374300729</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>162163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>141589</v>
+        <v>142162</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>186017</v>
+        <v>184584</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.337180821513149</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2944020823750652</v>
+        <v>0.2955929594985793</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3867778978124485</v>
+        <v>0.3837989868544386</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>227</v>
@@ -1050,19 +1050,19 @@
         <v>161240</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>144980</v>
+        <v>143927</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>180613</v>
+        <v>178644</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.381718017512085</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3432258732326462</v>
+        <v>0.3407311935517799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4275813726847182</v>
+        <v>0.4229204002621486</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>387</v>
@@ -1071,19 +1071,19 @@
         <v>323403</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>296985</v>
+        <v>296671</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>352420</v>
+        <v>351538</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3580064734600661</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.328761662390996</v>
+        <v>0.3284146883493758</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.390128356685206</v>
+        <v>0.3891520937264813</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>225262</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>202205</v>
+        <v>203009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>247215</v>
+        <v>247835</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.468379406566912</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4204387659353378</v>
+        <v>0.4221088193852867</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5140264055047827</v>
+        <v>0.5153151173807771</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>230</v>
@@ -1121,19 +1121,19 @@
         <v>161646</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>144702</v>
+        <v>145820</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>177422</v>
+        <v>179364</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3826811736757257</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3425661960365257</v>
+        <v>0.3452138696411155</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4200277646126065</v>
+        <v>0.424625431721164</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>460</v>
@@ -1142,19 +1142,19 @@
         <v>386908</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>357020</v>
+        <v>355474</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>413938</v>
+        <v>414976</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4283067991512963</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3952203736262059</v>
+        <v>0.393508552752836</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.458228698567242</v>
+        <v>0.4593776403255366</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>93514</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75239</v>
+        <v>76377</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111793</v>
+        <v>113799</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1944397719199391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1564425307271594</v>
+        <v>0.1588076555511604</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2324464755366398</v>
+        <v>0.2366178106853512</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>132</v>
@@ -1192,19 +1192,19 @@
         <v>99519</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84980</v>
+        <v>83979</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116827</v>
+        <v>114931</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2356008088121893</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.20118171362532</v>
+        <v>0.1988121339044854</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2765757862015875</v>
+        <v>0.2720863884560502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>221</v>
@@ -1213,19 +1213,19 @@
         <v>193033</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169503</v>
+        <v>170130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219693</v>
+        <v>217879</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2136867273886376</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1876393037645883</v>
+        <v>0.1883333627830654</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2431998046914201</v>
+        <v>0.2411920703263852</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>155081</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>135705</v>
+        <v>133768</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>176360</v>
+        <v>176506</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3293520382652403</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2882021534131278</v>
+        <v>0.2840874366940309</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3745426342579555</v>
+        <v>0.3748529569145852</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>93</v>
@@ -1338,19 +1338,19 @@
         <v>57267</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>47138</v>
+        <v>47682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>67804</v>
+        <v>69149</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3054273930060841</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2514073096731728</v>
+        <v>0.2543061003168345</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3616253271275596</v>
+        <v>0.3688020205800385</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>249</v>
@@ -1359,19 +1359,19 @@
         <v>212348</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>190823</v>
+        <v>188930</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>236360</v>
+        <v>235062</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3225384898375599</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2898435853477455</v>
+        <v>0.2869686695424899</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3590106496190792</v>
+        <v>0.3570388763702631</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>213284</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>191961</v>
+        <v>192285</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234880</v>
+        <v>236857</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4529598902959659</v>
+        <v>0.452959890295966</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.407674193526757</v>
+        <v>0.4083632052939924</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4988241910316107</v>
+        <v>0.503021288978005</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -1409,19 +1409,19 @@
         <v>90812</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79875</v>
+        <v>79380</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102687</v>
+        <v>101826</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4843398247150295</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4260066303393547</v>
+        <v>0.4233655023781715</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5476708735884374</v>
+        <v>0.5430803070744388</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>370</v>
@@ -1430,19 +1430,19 @@
         <v>304097</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>281118</v>
+        <v>280240</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>331420</v>
+        <v>328642</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4618966457005166</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4269939508078044</v>
+        <v>0.4256608962900315</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5033989401128276</v>
+        <v>0.4991787019050491</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>102502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86597</v>
+        <v>83170</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>122970</v>
+        <v>121987</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2176880714387938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1839091154782296</v>
+        <v>0.1766321309831098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2611562359897834</v>
+        <v>0.2590679837688438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -1480,19 +1480,19 @@
         <v>39418</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30705</v>
+        <v>30029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50735</v>
+        <v>49812</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2102327822788864</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1637639247822146</v>
+        <v>0.1601583571497873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2705896893846403</v>
+        <v>0.2656703061747482</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>157</v>
@@ -1501,19 +1501,19 @@
         <v>141920</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>122698</v>
+        <v>123048</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165266</v>
+        <v>164540</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2155648644619234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1863683407033275</v>
+        <v>0.1868986745736742</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2510250127326664</v>
+        <v>0.2499228889008411</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>388467</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>353068</v>
+        <v>354347</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>424118</v>
+        <v>426119</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3437166743527013</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3123963163694586</v>
+        <v>0.3135273950201881</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3752610942329073</v>
+        <v>0.3770314830763189</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>430</v>
@@ -1626,19 +1626,19 @@
         <v>296694</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>271601</v>
+        <v>273680</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>320859</v>
+        <v>321215</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3447318375314798</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3155753815141821</v>
+        <v>0.3179918845216635</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.372808715082961</v>
+        <v>0.3732228645235982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>817</v>
@@ -1647,19 +1647,19 @@
         <v>685161</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>639892</v>
+        <v>645851</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>724198</v>
+        <v>728440</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3441555342370971</v>
+        <v>0.344155534237097</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.321417054806026</v>
+        <v>0.3244101062491342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3637641523059733</v>
+        <v>0.3658946211628208</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>508777</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>472417</v>
+        <v>472105</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>546954</v>
+        <v>542817</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4501675771297001</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4179964585451179</v>
+        <v>0.4177203212115486</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4839467209362627</v>
+        <v>0.4802861338181091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>559</v>
@@ -1697,19 +1697,19 @@
         <v>386786</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>362298</v>
+        <v>362947</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>414647</v>
+        <v>413548</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4494103774853306</v>
+        <v>0.4494103774853307</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4209580834574046</v>
+        <v>0.4217118829110807</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4817825278154269</v>
+        <v>0.4805059859380342</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1071</v>
@@ -1718,19 +1718,19 @@
         <v>895563</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>853471</v>
+        <v>852474</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>942586</v>
+        <v>939080</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4498402361116852</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.428697621085558</v>
+        <v>0.4281966794486428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4734597967667965</v>
+        <v>0.4716991652862264</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>232951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>203313</v>
+        <v>203560</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>265830</v>
+        <v>264998</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2061157485175986</v>
+        <v>0.2061157485175987</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1798918385397371</v>
+        <v>0.1801110961583934</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2352076860352191</v>
+        <v>0.2344711019094232</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>240</v>
@@ -1768,19 +1768,19 @@
         <v>177172</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>155653</v>
+        <v>155965</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>199042</v>
+        <v>201553</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2058577849831895</v>
+        <v>0.2058577849831896</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1808544750668024</v>
+        <v>0.1812174034680167</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.231268574762183</v>
+        <v>0.234186796154443</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>457</v>
@@ -1789,19 +1789,19 @@
         <v>410123</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>375498</v>
+        <v>372475</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>448455</v>
+        <v>451611</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2060042296512177</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1886120999754603</v>
+        <v>0.1870938597101662</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2252584452234363</v>
+        <v>0.2268437893489916</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>179990</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>158783</v>
+        <v>158223</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>204325</v>
+        <v>205987</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.317823732471986</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2803780154773536</v>
+        <v>0.2793892619408239</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3607957254165157</v>
+        <v>0.3637295487082083</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>521</v>
@@ -1914,19 +1914,19 @@
         <v>317746</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>293817</v>
+        <v>293699</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>340626</v>
+        <v>342323</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3840032504202362</v>
+        <v>0.3840032504202361</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3550844621291633</v>
+        <v>0.3549422305326888</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4116536379640977</v>
+        <v>0.4137044887310067</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>710</v>
@@ -1935,19 +1935,19 @@
         <v>497736</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>466804</v>
+        <v>465374</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531267</v>
+        <v>534554</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3571131991551911</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3349202197782537</v>
+        <v>0.3338942821575999</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3811713174061745</v>
+        <v>0.3835292663836855</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>252875</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>226866</v>
+        <v>224866</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>278110</v>
+        <v>280946</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4465242420527201</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4005971108570276</v>
+        <v>0.3970668162450015</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4910844374653103</v>
+        <v>0.4960914626924403</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>584</v>
@@ -1985,19 +1985,19 @@
         <v>380864</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>357935</v>
+        <v>355834</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>406900</v>
+        <v>404557</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4602828543729466</v>
+        <v>0.4602828543729465</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4325726819820213</v>
+        <v>0.4300338167857422</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4917473009840911</v>
+        <v>0.4889159455920962</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>834</v>
@@ -2006,19 +2006,19 @@
         <v>633739</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>598300</v>
+        <v>599532</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>668994</v>
+        <v>671327</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4546924571912071</v>
+        <v>0.454692457191207</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4292652536678244</v>
+        <v>0.4301494348842894</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4799864642290804</v>
+        <v>0.48166064773436</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>133454</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>110001</v>
+        <v>112983</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>158782</v>
+        <v>161079</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2356520254752939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1942382573244766</v>
+        <v>0.1995041120658782</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2803760442536318</v>
+        <v>0.2844307457558511</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>180</v>
@@ -2056,19 +2056,19 @@
         <v>128847</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>109762</v>
+        <v>111379</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147178</v>
+        <v>147299</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1557138952068172</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.132649919259135</v>
+        <v>0.1346035419421532</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1778683322583608</v>
+        <v>0.1780145590498767</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>286</v>
@@ -2077,19 +2077,19 @@
         <v>262301</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>234862</v>
+        <v>230640</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>294586</v>
+        <v>293350</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1881943436536017</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1685080506496489</v>
+        <v>0.1654785507919466</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.211358408614796</v>
+        <v>0.210471444146669</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>54070</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36238</v>
+        <v>35022</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>77746</v>
+        <v>74861</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2279257273144757</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1527545019746903</v>
+        <v>0.1476319575377392</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3277277323857971</v>
+        <v>0.3155676644362286</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>501</v>
@@ -2202,19 +2202,19 @@
         <v>362026</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>333319</v>
+        <v>334251</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>388896</v>
+        <v>394973</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4287977275328762</v>
+        <v>0.4287977275328763</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3947964709674948</v>
+        <v>0.3958997834362114</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4606240479041965</v>
+        <v>0.4678222027246029</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>527</v>
@@ -2223,19 +2223,19 @@
         <v>416096</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>383048</v>
+        <v>382283</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>450129</v>
+        <v>450365</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3847366759056089</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3541793413536029</v>
+        <v>0.3534715283196779</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4162050122740033</v>
+        <v>0.4164227918167264</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>116653</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91450</v>
+        <v>93953</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>139757</v>
+        <v>141954</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4917328904538417</v>
+        <v>0.4917328904538418</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3854944506463845</v>
+        <v>0.3960467788982572</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5891247170147437</v>
+        <v>0.5983853477091884</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>483</v>
@@ -2273,19 +2273,19 @@
         <v>345126</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>317189</v>
+        <v>316735</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>370697</v>
+        <v>372021</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4087814891230098</v>
+        <v>0.4087814891230099</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.375691772894725</v>
+        <v>0.3751532020953747</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4390684838170672</v>
+        <v>0.4406368544662915</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>542</v>
@@ -2294,19 +2294,19 @@
         <v>461779</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>428885</v>
+        <v>424819</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>498122</v>
+        <v>500715</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4269767874852411</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3965615057768606</v>
+        <v>0.3928018249976972</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4605808911013389</v>
+        <v>0.4629779982916826</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>66505</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44924</v>
+        <v>45752</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>91007</v>
+        <v>91833</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2803413822316825</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1893689533792616</v>
+        <v>0.1928590880553228</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3836279009017936</v>
+        <v>0.387108212039888</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>175</v>
@@ -2344,19 +2344,19 @@
         <v>137129</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>115872</v>
+        <v>117898</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>161700</v>
+        <v>163262</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1624207833441139</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1372439851808403</v>
+        <v>0.1396426801329015</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1915236546691739</v>
+        <v>0.1933744649535517</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>202</v>
@@ -2365,19 +2365,19 @@
         <v>203634</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>173777</v>
+        <v>175238</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>241363</v>
+        <v>241378</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1882865366091502</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1606804719003966</v>
+        <v>0.1620312902088926</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2231723573283145</v>
+        <v>0.223186477906427</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>1108246</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1041579</v>
+        <v>1048402</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1171158</v>
+        <v>1174953</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.3225816004226256</v>
+        <v>0.3225816004226255</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3031766454833308</v>
+        <v>0.305162627549937</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.340893699221639</v>
+        <v>0.34199823718515</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2012</v>
@@ -2490,19 +2490,19 @@
         <v>1368235</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1314041</v>
+        <v>1316276</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1423087</v>
+        <v>1417375</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3768512297476502</v>
+        <v>0.3768512297476501</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.36192468870086</v>
+        <v>0.362540140366682</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3919592013745364</v>
+        <v>0.3903857135921919</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3100</v>
@@ -2511,19 +2511,19 @@
         <v>2476481</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2400654</v>
+        <v>2396557</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2556854</v>
+        <v>2554832</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3504658001756273</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3397348738057922</v>
+        <v>0.3391550657577509</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3618399200010942</v>
+        <v>0.3615539114597083</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>1569855</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1501851</v>
+        <v>1507328</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1639191</v>
+        <v>1636442</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4569437943381068</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4371497483768254</v>
+        <v>0.4387438136518544</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4771258332135856</v>
+        <v>0.4763256573505217</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2284</v>
@@ -2561,19 +2561,19 @@
         <v>1562719</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1511088</v>
+        <v>1510643</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1621102</v>
+        <v>1614768</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4304178240596984</v>
+        <v>0.4304178240596985</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4161970846695088</v>
+        <v>0.4160746508247592</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.446498127733172</v>
+        <v>0.4447535246515783</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3820</v>
@@ -2582,19 +2582,19 @@
         <v>3132574</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3043229</v>
+        <v>3053427</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3213627</v>
+        <v>3216900</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.443314523914027</v>
+        <v>0.4433145239140271</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4306706303527564</v>
+        <v>0.4321138263066061</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4547849330239109</v>
+        <v>0.4552481120568317</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>757452</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>701123</v>
+        <v>702074</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>816667</v>
+        <v>818052</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2204746052392676</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2040787571712456</v>
+        <v>0.2043554084058381</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2377105031899466</v>
+        <v>0.2381137066303424</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>941</v>
@@ -2632,19 +2632,19 @@
         <v>699749</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>658448</v>
+        <v>657127</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>747520</v>
+        <v>740349</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1927309461926514</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.18135542908697</v>
+        <v>0.1809917200973203</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2058884239333102</v>
+        <v>0.2039133805844204</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1609</v>
@@ -2653,19 +2653,19 @@
         <v>1457201</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1387242</v>
+        <v>1391051</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1531236</v>
+        <v>1530505</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2062196759103455</v>
+        <v>0.2062196759103456</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1963192202779528</v>
+        <v>0.1968583296362391</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2166969639182858</v>
+        <v>0.2165934627856533</v>
       </c>
     </row>
     <row r="31">
